--- a/data/processed/dataset_clean.xlsx
+++ b/data/processed/dataset_clean.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -53,9 +53,6 @@
     <t xml:space="preserve">vzdelani_vs</t>
   </si>
   <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kristýna</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t xml:space="preserve">Ne</t>
   </si>
   <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
     <t xml:space="preserve">Martin</t>
   </si>
   <si>
@@ -98,9 +92,6 @@
     <t xml:space="preserve">Ostrava</t>
   </si>
   <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
     <t xml:space="preserve">Anna</t>
   </si>
   <si>
@@ -119,9 +110,6 @@
     <t xml:space="preserve">Ano</t>
   </si>
   <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
     <t xml:space="preserve">Daniel</t>
   </si>
   <si>
@@ -134,9 +122,6 @@
     <t xml:space="preserve">Opava</t>
   </si>
   <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
     <t xml:space="preserve">Filip</t>
   </si>
   <si>
@@ -149,9 +134,6 @@
     <t xml:space="preserve">Zlín</t>
   </si>
   <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nikola</t>
   </si>
   <si>
@@ -164,9 +146,6 @@
     <t xml:space="preserve">Mladá Boleslav</t>
   </si>
   <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zuzana</t>
   </si>
   <si>
@@ -179,9 +158,6 @@
     <t xml:space="preserve">Dvořáková</t>
   </si>
   <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vojtěch</t>
   </si>
   <si>
@@ -191,9 +167,6 @@
     <t xml:space="preserve">Teplice</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tomáš</t>
   </si>
   <si>
@@ -206,9 +179,6 @@
     <t xml:space="preserve">Brno</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Michaela</t>
   </si>
   <si>
@@ -221,9 +191,6 @@
     <t xml:space="preserve">Česká Kamenice</t>
   </si>
   <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
     <t xml:space="preserve">Eliška</t>
   </si>
   <si>
@@ -236,9 +203,6 @@
     <t xml:space="preserve">Znojmo</t>
   </si>
   <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
     <t xml:space="preserve">Josef</t>
   </si>
   <si>
@@ -251,9 +215,6 @@
     <t xml:space="preserve">Most</t>
   </si>
   <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
     <t xml:space="preserve">Natálie</t>
   </si>
   <si>
@@ -266,9 +227,6 @@
     <t xml:space="preserve">Žďár nad Sázavou</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Marie</t>
   </si>
   <si>
@@ -281,9 +239,6 @@
     <t xml:space="preserve">Blansko</t>
   </si>
   <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
     <t xml:space="preserve">David</t>
   </si>
   <si>
@@ -296,9 +251,6 @@
     <t xml:space="preserve">Olomouc</t>
   </si>
   <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Antonín</t>
   </si>
   <si>
@@ -311,9 +263,6 @@
     <t xml:space="preserve">Česká Lípa</t>
   </si>
   <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lenka</t>
   </si>
   <si>
@@ -329,9 +278,6 @@
     <t xml:space="preserve">Kolářová</t>
   </si>
   <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
     <t xml:space="preserve">Adam</t>
   </si>
   <si>
@@ -341,9 +287,6 @@
     <t xml:space="preserve">Pardubice</t>
   </si>
   <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
     <t xml:space="preserve">Markéta</t>
   </si>
   <si>
@@ -353,9 +296,6 @@
     <t xml:space="preserve">Tábor</t>
   </si>
   <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
     <t xml:space="preserve">Roman</t>
   </si>
   <si>
@@ -368,9 +308,6 @@
     <t xml:space="preserve">Jihlava</t>
   </si>
   <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
     <t xml:space="preserve">Veronika</t>
   </si>
   <si>
@@ -383,9 +320,6 @@
     <t xml:space="preserve">Trutnov</t>
   </si>
   <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
     <t xml:space="preserve">Václav</t>
   </si>
   <si>
@@ -398,9 +332,6 @@
     <t xml:space="preserve">Kladno</t>
   </si>
   <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jana</t>
   </si>
   <si>
@@ -413,9 +344,6 @@
     <t xml:space="preserve">Český Těšín</t>
   </si>
   <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
     <t xml:space="preserve">Eva</t>
   </si>
   <si>
@@ -428,9 +356,6 @@
     <t xml:space="preserve">Hodonín</t>
   </si>
   <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
     <t xml:space="preserve">Michal</t>
   </si>
   <si>
@@ -443,9 +368,6 @@
     <t xml:space="preserve">Ústí nad Labem</t>
   </si>
   <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ondřej</t>
   </si>
   <si>
@@ -458,9 +380,6 @@
     <t xml:space="preserve">Havířov</t>
   </si>
   <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kateřina</t>
   </si>
   <si>
@@ -473,9 +392,6 @@
     <t xml:space="preserve">Nový Jičín</t>
   </si>
   <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
     <t xml:space="preserve">Petr</t>
   </si>
   <si>
@@ -488,9 +404,6 @@
     <t xml:space="preserve">Liberec</t>
   </si>
   <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
     <t xml:space="preserve">Radek</t>
   </si>
   <si>
@@ -503,9 +416,6 @@
     <t xml:space="preserve">Děčín</t>
   </si>
   <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
     <t xml:space="preserve">Klára</t>
   </si>
   <si>
@@ -518,9 +428,6 @@
     <t xml:space="preserve">Klatovy</t>
   </si>
   <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
     <t xml:space="preserve">Patrik</t>
   </si>
   <si>
@@ -536,9 +443,6 @@
     <t xml:space="preserve">Pospíšil</t>
   </si>
   <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
     <t xml:space="preserve">Karel</t>
   </si>
   <si>
@@ -551,9 +455,6 @@
     <t xml:space="preserve">Karviná</t>
   </si>
   <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lucie</t>
   </si>
   <si>
@@ -566,9 +467,6 @@
     <t xml:space="preserve">Kroměříž</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Matěj</t>
   </si>
   <si>
@@ -581,9 +479,6 @@
     <t xml:space="preserve">České Budějovice</t>
   </si>
   <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
     <t xml:space="preserve">Simona</t>
   </si>
   <si>
@@ -596,9 +491,6 @@
     <t xml:space="preserve">Žatec</t>
   </si>
   <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
     <t xml:space="preserve">Karolína</t>
   </si>
   <si>
@@ -611,9 +503,6 @@
     <t xml:space="preserve">Chrudim</t>
   </si>
   <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jakub</t>
   </si>
   <si>
@@ -626,9 +515,6 @@
     <t xml:space="preserve">Praha</t>
   </si>
   <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tereza</t>
   </si>
   <si>
@@ -641,9 +527,6 @@
     <t xml:space="preserve">Sokolov</t>
   </si>
   <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alena</t>
   </si>
   <si>
@@ -656,9 +539,6 @@
     <t xml:space="preserve">Litoměřice</t>
   </si>
   <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lukáš</t>
   </si>
   <si>
@@ -671,9 +551,6 @@
     <t xml:space="preserve">Plzeň</t>
   </si>
   <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
     <t xml:space="preserve">Adéla</t>
   </si>
   <si>
@@ -686,9 +563,6 @@
     <t xml:space="preserve">Chomutov</t>
   </si>
   <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
     <t xml:space="preserve">Martina</t>
   </si>
   <si>
@@ -698,9 +572,6 @@
     <t xml:space="preserve">Sušice</t>
   </si>
   <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
     <t xml:space="preserve">Barbora</t>
   </si>
   <si>
@@ -710,9 +581,6 @@
     <t xml:space="preserve">Zábřeh</t>
   </si>
   <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jiří</t>
   </si>
   <si>
@@ -722,9 +590,6 @@
     <t xml:space="preserve">Jindřichův Hradec</t>
   </si>
   <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
     <t xml:space="preserve">Šimon</t>
   </si>
   <si>
@@ -737,9 +602,6 @@
     <t xml:space="preserve">Frýdek-Místek</t>
   </si>
   <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
     <t xml:space="preserve">Veselá</t>
   </si>
   <si>
@@ -749,16 +611,10 @@
     <t xml:space="preserve">Hradec Králové</t>
   </si>
   <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
     <t xml:space="preserve">Veselý</t>
   </si>
   <si>
     <t xml:space="preserve">12.05.1995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
   </si>
   <si>
     <t xml:space="preserve">Hana</t>
@@ -1141,29 +997,29 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
       </c>
       <c r="E2" t="n">
         <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" t="n">
         <v>4.5</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" t="n">
         <v>1966</v>
@@ -1175,36 +1031,36 @@
         <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
       </c>
       <c r="E3" t="n">
         <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G3" t="n">
         <v>7.5</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I3" t="n">
         <v>1967</v>
@@ -1216,36 +1072,36 @@
         <v>8</v>
       </c>
       <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
       </c>
       <c r="E4" t="n">
         <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" t="n">
         <v>6.9</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I4" t="n">
         <v>1968</v>
@@ -1257,36 +1113,36 @@
         <v>16</v>
       </c>
       <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="M4" t="s">
+      <c r="D5" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
       </c>
       <c r="E5" t="n">
         <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G5" t="n">
         <v>6.9</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I5" t="n">
         <v>1969</v>
@@ -1298,36 +1154,36 @@
         <v>7</v>
       </c>
       <c r="L5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>40</v>
+      <c r="A6" t="n">
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E6" t="n">
         <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G6" t="n">
         <v>7.1</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I6" t="n">
         <v>1970</v>
@@ -1339,36 +1195,36 @@
         <v>22</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>45</v>
+      <c r="A7" t="n">
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E7" t="n">
         <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" t="n">
         <v>7.6</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" t="n">
         <v>1971</v>
@@ -1380,36 +1236,36 @@
         <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>50</v>
+      <c r="A8" t="n">
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E8" t="n">
         <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>4.5</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" t="n">
         <v>1971</v>
@@ -1421,36 +1277,36 @@
         <v>30</v>
       </c>
       <c r="L8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="M8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>50</v>
+      <c r="A9" t="n">
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E9" t="n">
         <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" t="n">
         <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9" t="n">
         <v>1971</v>
@@ -1462,36 +1318,36 @@
         <v>30</v>
       </c>
       <c r="L9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="M9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>55</v>
+      <c r="A10" t="n">
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E10" t="n">
         <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G10" t="n">
         <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I10" t="n">
         <v>1972</v>
@@ -1503,36 +1359,36 @@
         <v>15</v>
       </c>
       <c r="L10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>59</v>
+      <c r="A11" t="n">
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E11" t="n">
         <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G11" t="n">
         <v>7.2</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I11" t="n">
         <v>1973</v>
@@ -1544,36 +1400,36 @@
         <v>23</v>
       </c>
       <c r="L11" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="M11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>64</v>
+      <c r="A12" t="n">
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E12" t="n">
         <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" t="n">
         <v>7.5</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I12" t="n">
         <v>1974</v>
@@ -1585,36 +1441,36 @@
         <v>3</v>
       </c>
       <c r="L12" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="M12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>69</v>
+      <c r="A13" t="n">
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E13" t="n">
         <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" t="n">
         <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I13" t="n">
         <v>1974</v>
@@ -1626,36 +1482,36 @@
         <v>6</v>
       </c>
       <c r="L13" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="M13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>74</v>
+      <c r="A14" t="n">
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E14" t="n">
         <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G14" t="n">
         <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I14" t="n">
         <v>1975</v>
@@ -1667,36 +1523,36 @@
         <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="M14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>79</v>
+      <c r="A15" t="n">
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E15" t="n">
         <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" t="n">
         <v>5.8</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I15" t="n">
         <v>1975</v>
@@ -1708,36 +1564,36 @@
         <v>2</v>
       </c>
       <c r="L15" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="M15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>84</v>
+      <c r="A16" t="n">
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E16" t="n">
         <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" t="n">
         <v>6.8</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I16" t="n">
         <v>1976</v>
@@ -1749,36 +1605,36 @@
         <v>19</v>
       </c>
       <c r="L16" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="M16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>89</v>
+      <c r="A17" t="n">
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E17" t="n">
         <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G17" t="n">
         <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I17" t="n">
         <v>1976</v>
@@ -1790,36 +1646,36 @@
         <v>2</v>
       </c>
       <c r="L17" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="M17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>94</v>
+      <c r="A18" t="n">
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E18" t="n">
         <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G18" t="n">
         <v>7.5</v>
       </c>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I18" t="n">
         <v>1977</v>
@@ -1831,36 +1687,36 @@
         <v>25</v>
       </c>
       <c r="L18" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="M18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>99</v>
+      <c r="A19" t="n">
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E19" t="n">
         <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19" t="n">
         <v>6.9</v>
       </c>
       <c r="H19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I19" t="n">
         <v>1978</v>
@@ -1872,36 +1728,36 @@
         <v>23</v>
       </c>
       <c r="L19" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="M19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>99</v>
+      <c r="A20" t="n">
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E20" t="n">
         <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G20" t="n">
         <v>5.9</v>
       </c>
       <c r="H20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I20" t="n">
         <v>1978</v>
@@ -1913,36 +1769,36 @@
         <v>23</v>
       </c>
       <c r="L20" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="M20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>105</v>
+      <c r="A21" t="n">
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E21" t="n">
         <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G21" t="n">
         <v>8.8</v>
       </c>
       <c r="H21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I21" t="n">
         <v>1978</v>
@@ -1954,36 +1810,36 @@
         <v>5</v>
       </c>
       <c r="L21" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="M21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>109</v>
+      <c r="A22" t="n">
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E22" t="n">
         <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G22" t="n">
         <v>8.5</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I22" t="n">
         <v>1978</v>
@@ -1995,36 +1851,36 @@
         <v>23</v>
       </c>
       <c r="L22" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="M22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>113</v>
+      <c r="A23" t="n">
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="E23" t="n">
         <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G23" t="n">
         <v>8</v>
       </c>
       <c r="H23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I23" t="n">
         <v>1979</v>
@@ -2036,36 +1892,36 @@
         <v>3</v>
       </c>
       <c r="L23" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="M23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>118</v>
+      <c r="A24" t="n">
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="E24" t="n">
         <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G24" t="n">
         <v>9.2</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I24" t="n">
         <v>1979</v>
@@ -2077,36 +1933,36 @@
         <v>14</v>
       </c>
       <c r="L24" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="M24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>123</v>
-      </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="E25" t="n">
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G25" t="n">
         <v>6.4</v>
       </c>
       <c r="H25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I25" t="n">
         <v>1980</v>
@@ -2118,36 +1974,36 @@
         <v>26</v>
       </c>
       <c r="L25" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="M25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
-        <v>128</v>
+      <c r="A26" t="n">
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E26" t="n">
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G26" t="n">
         <v>7.5</v>
       </c>
       <c r="H26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I26" t="n">
         <v>1981</v>
@@ -2159,36 +2015,36 @@
         <v>21</v>
       </c>
       <c r="L26" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="M26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>133</v>
+      <c r="A27" t="n">
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="E27" t="n">
         <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G27" t="n">
         <v>8.5</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I27" t="n">
         <v>1982</v>
@@ -2200,36 +2056,36 @@
         <v>9</v>
       </c>
       <c r="L27" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="M27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>138</v>
+      <c r="A28" t="n">
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="E28" t="n">
         <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G28" t="n">
         <v>8.1</v>
       </c>
       <c r="H28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I28" t="n">
         <v>1982</v>
@@ -2241,36 +2097,36 @@
         <v>19</v>
       </c>
       <c r="L28" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="M28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>143</v>
+      <c r="A29" t="n">
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="E29" t="n">
         <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G29" t="n">
         <v>8.4</v>
       </c>
       <c r="H29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I29" t="n">
         <v>1983</v>
@@ -2282,36 +2138,36 @@
         <v>9</v>
       </c>
       <c r="L29" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="M29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
-        <v>148</v>
+      <c r="A30" t="n">
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="D30" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="E30" t="n">
         <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G30" t="n">
         <v>8</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I30" t="n">
         <v>1983</v>
@@ -2323,36 +2179,36 @@
         <v>1</v>
       </c>
       <c r="L30" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="M30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>153</v>
+      <c r="A31" t="n">
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="C31" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="E31" t="n">
         <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G31" t="n">
         <v>8.8</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I31" t="n">
         <v>1984</v>
@@ -2364,36 +2220,36 @@
         <v>17</v>
       </c>
       <c r="L31" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="M31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>158</v>
+      <c r="A32" t="n">
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="D32" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="E32" t="n">
         <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G32" t="n">
         <v>8</v>
       </c>
       <c r="H32" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I32" t="n">
         <v>1985</v>
@@ -2405,36 +2261,36 @@
         <v>28</v>
       </c>
       <c r="L32" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="M32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>163</v>
+      <c r="A33" t="n">
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="C33" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="D33" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="E33" t="n">
         <v>39</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G33" t="n">
         <v>4.9</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I33" t="n">
         <v>1985</v>
@@ -2446,36 +2302,36 @@
         <v>7</v>
       </c>
       <c r="L33" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="M33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s">
-        <v>168</v>
+      <c r="A34" t="n">
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="C34" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="D34" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="E34" t="n">
         <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G34" t="n">
         <v>9.2</v>
       </c>
       <c r="H34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I34" t="n">
         <v>1986</v>
@@ -2487,36 +2343,36 @@
         <v>10</v>
       </c>
       <c r="L34" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="M34" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>168</v>
+      <c r="A35" t="n">
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="C35" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="D35" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="E35" t="n">
         <v>38</v>
       </c>
       <c r="F35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G35" t="n">
         <v>7.8</v>
       </c>
       <c r="H35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I35" t="n">
         <v>1986</v>
@@ -2528,36 +2384,36 @@
         <v>10</v>
       </c>
       <c r="L35" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="M35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>174</v>
+      <c r="A36" t="n">
+        <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C36" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="E36" t="n">
         <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G36" t="n">
         <v>6.4</v>
       </c>
       <c r="H36" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I36" t="n">
         <v>1987</v>
@@ -2569,36 +2425,36 @@
         <v>18</v>
       </c>
       <c r="L36" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="M36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
-        <v>179</v>
+      <c r="A37" t="n">
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="C37" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="D37" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="E37" t="n">
         <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G37" t="n">
         <v>7.4</v>
       </c>
       <c r="H37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I37" t="n">
         <v>1987</v>
@@ -2610,36 +2466,36 @@
         <v>18</v>
       </c>
       <c r="L37" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="M37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
-        <v>184</v>
+      <c r="A38" t="n">
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="C38" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="D38" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="E38" t="n">
         <v>36</v>
       </c>
       <c r="F38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G38" t="n">
         <v>8.7</v>
       </c>
       <c r="H38" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I38" t="n">
         <v>1988</v>
@@ -2651,36 +2507,36 @@
         <v>27</v>
       </c>
       <c r="L38" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="M38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s">
-        <v>189</v>
+      <c r="A39" t="n">
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="C39" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="D39" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="E39" t="n">
         <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G39" t="n">
         <v>6.1</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I39" t="n">
         <v>1988</v>
@@ -2692,36 +2548,36 @@
         <v>27</v>
       </c>
       <c r="L39" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="M39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s">
-        <v>194</v>
+      <c r="A40" t="n">
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="C40" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="D40" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="E40" t="n">
         <v>35</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G40" t="n">
         <v>7</v>
       </c>
       <c r="H40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I40" t="n">
         <v>1989</v>
@@ -2733,36 +2589,36 @@
         <v>8</v>
       </c>
       <c r="L40" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="M40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s">
-        <v>199</v>
+      <c r="A41" t="n">
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="C41" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="D41" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="E41" t="n">
         <v>35</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G41" t="n">
         <v>5.7</v>
       </c>
       <c r="H41" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I41" t="n">
         <v>1989</v>
@@ -2774,36 +2630,36 @@
         <v>14</v>
       </c>
       <c r="L41" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="M41" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s">
-        <v>204</v>
+      <c r="A42" t="n">
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="C42" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="D42" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="E42" t="n">
         <v>34</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G42" t="n">
         <v>4.5</v>
       </c>
       <c r="H42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I42" t="n">
         <v>1990</v>
@@ -2815,36 +2671,36 @@
         <v>12</v>
       </c>
       <c r="L42" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="M42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s">
-        <v>209</v>
+      <c r="A43" t="n">
+        <v>24</v>
       </c>
       <c r="B43" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="C43" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="D43" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="E43" t="n">
         <v>33</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G43" t="n">
         <v>6.4</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I43" t="n">
         <v>1991</v>
@@ -2856,36 +2712,36 @@
         <v>11</v>
       </c>
       <c r="L43" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="M43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s">
-        <v>214</v>
+      <c r="A44" t="n">
+        <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="C44" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="D44" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="E44" t="n">
         <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G44" t="n">
         <v>8</v>
       </c>
       <c r="H44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I44" t="n">
         <v>1991</v>
@@ -2897,36 +2753,36 @@
         <v>30</v>
       </c>
       <c r="L44" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="M44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s">
-        <v>219</v>
+      <c r="A45" t="n">
+        <v>13</v>
       </c>
       <c r="B45" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="C45" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="D45" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="E45" t="n">
         <v>32</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G45" t="n">
         <v>7.7</v>
       </c>
       <c r="H45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I45" t="n">
         <v>1992</v>
@@ -2938,36 +2794,36 @@
         <v>29</v>
       </c>
       <c r="L45" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="M45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s">
-        <v>224</v>
+      <c r="A46" t="n">
+        <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="C46" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="D46" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="E46" t="n">
         <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G46" t="n">
         <v>8</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I46" t="n">
         <v>1992</v>
@@ -2979,36 +2835,36 @@
         <v>5</v>
       </c>
       <c r="L46" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="M46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s">
-        <v>228</v>
+      <c r="A47" t="n">
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="C47" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="D47" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="E47" t="n">
         <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G47" t="n">
         <v>8.1</v>
       </c>
       <c r="H47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I47" t="n">
         <v>1992</v>
@@ -3020,36 +2876,36 @@
         <v>5</v>
       </c>
       <c r="L47" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="M47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s">
-        <v>232</v>
+      <c r="A48" t="n">
+        <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="C48" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="D48" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="E48" t="n">
         <v>31</v>
       </c>
       <c r="F48" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G48" t="n">
         <v>9</v>
       </c>
       <c r="H48" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I48" t="n">
         <v>1993</v>
@@ -3061,34 +2917,34 @@
         <v>4</v>
       </c>
       <c r="L48" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
       <c r="M48" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s">
-        <v>236</v>
+      <c r="A49" t="n">
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="C49" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="D49" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="E49" t="n">
         <v>30</v>
       </c>
       <c r="F49" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G49"/>
       <c r="H49" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I49" t="n">
         <v>1994</v>
@@ -3100,36 +2956,36 @@
         <v>1</v>
       </c>
       <c r="L49" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="M49" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s">
-        <v>241</v>
+      <c r="A50" t="n">
+        <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="C50" t="s">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="D50" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="E50" t="n">
         <v>29</v>
       </c>
       <c r="F50" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G50" t="n">
         <v>8.5</v>
       </c>
       <c r="H50" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I50" t="n">
         <v>1995</v>
@@ -3141,34 +2997,34 @@
         <v>11</v>
       </c>
       <c r="L50" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="M50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s">
-        <v>245</v>
+      <c r="A51" t="n">
+        <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="C51" t="s">
-        <v>246</v>
+        <v>199</v>
       </c>
       <c r="D51" t="s">
-        <v>247</v>
+        <v>200</v>
       </c>
       <c r="E51" t="n">
         <v>29</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G51"/>
       <c r="H51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I51" t="n">
         <v>1995</v>
@@ -3180,41 +3036,41 @@
         <v>12</v>
       </c>
       <c r="L51" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="M51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s">
-        <v>248</v>
+      <c r="A52" t="n">
+        <v>40</v>
       </c>
       <c r="B52" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="C52" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="D52"/>
       <c r="E52"/>
       <c r="F52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G52" t="n">
         <v>8.9</v>
       </c>
       <c r="H52" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I52"/>
       <c r="J52"/>
       <c r="K52"/>
       <c r="L52" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="M52" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data/processed/dataset_clean.xlsx
+++ b/data/processed/dataset_clean.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">ZŠ</t>
   </si>
   <si>
-    <t xml:space="preserve">Prostějov</t>
+    <t xml:space="preserve">Rumburk</t>
   </si>
   <si>
     <t xml:space="preserve">Ne</t>
@@ -89,528 +89,498 @@
     <t xml:space="preserve">SŠ</t>
   </si>
   <si>
+    <t xml:space="preserve">Broumov, Dvůr Králové nad Labem, Hradec Králové, Náchod, Trutnov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Černá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.07.1968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VŠ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lovosice, Litoměřice, Žatec, Roudnice nad Labem, Chomutov, Kadaň</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Černý</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.10.1969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pardubice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doležal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.01.1970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luhačovice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nikola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doležalová</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.07.1971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Praha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zuzana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dvořák</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dvořáková</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vyškov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vojtěch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.04.1972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benešov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomáš</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.12.1973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michaela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fialová</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03.05.1974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Černošice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliška</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hájek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06.05.1974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nymburk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hájková</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.02.1975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natálie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horák</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02.10.1975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariánské Lázně</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horáková</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.11.1976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">České Budějovice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jelínek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02.07.1976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vysoké Mýto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antonín</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jelínková</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.02.1977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plzeň</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolář</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.09.1978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolářová</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moravská Třebová</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05.05.1978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jablonec nad Nisou, Liberec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Markéta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Král</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brno, Olomouc, Šumperk, Zábřeh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Králová</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03.08.1979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jihlava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veronika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kučera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.06.1979</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ostrava</t>
   </si>
   <si>
-    <t xml:space="preserve">Anna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Černá</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.07.1968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VŠ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dvůr Králové nad Labem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Černý</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.10.1969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opava</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doležal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.01.1970</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zlín</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nikola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doležalová</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.07.1971</t>
+    <t xml:space="preserve">Václav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kučerová</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.06.1980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.03.1981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rožnov pod Radhoštěm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marková</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.02.1982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Němcová</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.03.1982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ondřej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Němec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.12.1983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brno, Olomouc, Plzeň, Ústí nad Labem, Praha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kateřina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nováková</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.04.1983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rokycany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novotná</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.10.1984</t>
   </si>
   <si>
     <t xml:space="preserve">Mladá Boleslav</t>
   </si>
   <si>
-    <t xml:space="preserve">Zuzana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dvořák</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slaný</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dvořáková</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vojtěch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.04.1972</t>
+    <t xml:space="preserve">Radek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novotný</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.12.1985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karlovy Vary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klára</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pokorná</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.08.1985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Břeclav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pokorný</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.12.1986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pospíšil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pospíšilová</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.09.1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procházka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.12.1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ústí nad Labem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matěj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procházková</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.08.1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brno, Plzeň, Praha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Růžička</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.06.1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kutná Hora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karolína</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sedláček</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08.01.1989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivančice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jakub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sedláčková</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.06.1989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ostrov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tereza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Svoboda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.08.1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Svobodová</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.12.1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olomouc, Přerov, Uherské Hradiště, Praha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lukáš</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.04.1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adéla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urbanová</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.09.1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">České Budějovice, Praha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05.03.1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Říčany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaněk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiří</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04.06.1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Šimon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaňková</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.01.1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Černošice, Rakovník, Říčany, Praha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veselá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.11.1995</t>
   </si>
   <si>
     <t xml:space="preserve">Teplice</t>
   </si>
   <si>
-    <t xml:space="preserve">Tomáš</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12.1973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michaela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fialová</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03.05.1974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Česká Kamenice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eliška</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hájek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06.05.1974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Znojmo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Josef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hájková</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.02.1975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Most</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natálie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Horák</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02.10.1975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Žďár nad Sázavou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Horáková</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.11.1976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blansko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jelínek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02.07.1976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olomouc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antonín</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jelínková</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.02.1977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Česká Lípa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lenka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kolář</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.09.1978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opočno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kolářová</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05.05.1978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pardubice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Markéta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Král</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tábor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Králová</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03.08.1979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jihlava</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veronika</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kučera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.06.1979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trutnov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Václav</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kučerová</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.06.1980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kladno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.03.1981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Český Těšín</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marková</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09.02.1982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hodonín</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Němcová</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.03.1982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ústí nad Labem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ondřej</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Němec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09.12.1983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Havířov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kateřina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nováková</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.04.1983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nový Jičín</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Novotná</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.10.1984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Novotný</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.12.1985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Děčín</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klára</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pokorná</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.08.1985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klatovy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patrik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pokorný</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.12.1986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Třebíč</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pospíšil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pospíšilová</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.09.1987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karviná</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Procházka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.12.1987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kroměříž</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matěj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Procházková</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.08.1988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">České Budějovice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Růžička</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.06.1988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Žatec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karolína</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sedláček</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08.01.1989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chrudim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jakub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sedláčková</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.06.1989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Praha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tereza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Svoboda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.08.1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sokolov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Svobodová</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.12.1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Litoměřice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lukáš</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urban</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.04.1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plzeň</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adéla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urbanová</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.09.1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chomutov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05.03.1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sušice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barbora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vaněk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zábřeh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jiří</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04.06.1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jindřichův Hradec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Šimon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vaňková</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.1994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frýdek-Místek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veselá</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.11.1995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hradec Králové</t>
-  </si>
-  <si>
     <t xml:space="preserve">Veselý</t>
   </si>
   <si>
@@ -621,9 +591,6 @@
   </si>
   <si>
     <t xml:space="preserve">Zemanová</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strakonice</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1244,7 @@
         <v>30</v>
       </c>
       <c r="L8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="M8" t="s">
         <v>19</v>
@@ -1291,7 +1258,7 @@
         <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
@@ -1318,7 +1285,7 @@
         <v>30</v>
       </c>
       <c r="L9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M9" t="s">
         <v>19</v>
@@ -1332,7 +1299,7 @@
         <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
         <v>49</v>
@@ -1400,7 +1367,7 @@
         <v>23</v>
       </c>
       <c r="L11" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M11" t="s">
         <v>19</v>
@@ -1411,13 +1378,13 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
         <v>55</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>56</v>
-      </c>
-      <c r="D12" t="s">
-        <v>57</v>
       </c>
       <c r="E12" t="n">
         <v>50</v>
@@ -1441,7 +1408,7 @@
         <v>3</v>
       </c>
       <c r="L12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M12" t="s">
         <v>19</v>
@@ -1452,13 +1419,13 @@
         <v>50</v>
       </c>
       <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
         <v>59</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>60</v>
-      </c>
-      <c r="D13" t="s">
-        <v>61</v>
       </c>
       <c r="E13" t="n">
         <v>50</v>
@@ -1482,7 +1449,7 @@
         <v>6</v>
       </c>
       <c r="L13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M13" t="s">
         <v>19</v>
@@ -1493,13 +1460,13 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
         <v>63</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>64</v>
-      </c>
-      <c r="D14" t="s">
-        <v>65</v>
       </c>
       <c r="E14" t="n">
         <v>49</v>
@@ -1523,7 +1490,7 @@
         <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="M14" t="s">
         <v>31</v>
@@ -1534,13 +1501,13 @@
         <v>52</v>
       </c>
       <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
         <v>67</v>
-      </c>
-      <c r="C15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" t="s">
-        <v>69</v>
       </c>
       <c r="E15" t="n">
         <v>49</v>
@@ -1564,7 +1531,7 @@
         <v>2</v>
       </c>
       <c r="L15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M15" t="s">
         <v>19</v>
@@ -1575,13 +1542,13 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
         <v>71</v>
-      </c>
-      <c r="C16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" t="s">
-        <v>73</v>
       </c>
       <c r="E16" t="n">
         <v>48</v>
@@ -1605,7 +1572,7 @@
         <v>19</v>
       </c>
       <c r="L16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M16" t="s">
         <v>19</v>
@@ -1616,13 +1583,13 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
         <v>75</v>
-      </c>
-      <c r="C17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" t="s">
-        <v>77</v>
       </c>
       <c r="E17" t="n">
         <v>48</v>
@@ -1646,7 +1613,7 @@
         <v>2</v>
       </c>
       <c r="L17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M17" t="s">
         <v>19</v>
@@ -1657,13 +1624,13 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
         <v>79</v>
-      </c>
-      <c r="C18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" t="s">
-        <v>81</v>
       </c>
       <c r="E18" t="n">
         <v>47</v>
@@ -1687,7 +1654,7 @@
         <v>25</v>
       </c>
       <c r="L18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M18" t="s">
         <v>31</v>
@@ -1698,13 +1665,13 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
         <v>83</v>
-      </c>
-      <c r="C19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" t="s">
-        <v>85</v>
       </c>
       <c r="E19" t="n">
         <v>46</v>
@@ -1728,7 +1695,7 @@
         <v>23</v>
       </c>
       <c r="L19" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="M19" t="s">
         <v>19</v>
@@ -1739,13 +1706,13 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" t="s">
         <v>83</v>
-      </c>
-      <c r="C20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" t="s">
-        <v>85</v>
       </c>
       <c r="E20" t="n">
         <v>46</v>
@@ -1769,7 +1736,7 @@
         <v>23</v>
       </c>
       <c r="L20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M20" t="s">
         <v>19</v>
@@ -1780,13 +1747,13 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" t="s">
         <v>87</v>
-      </c>
-      <c r="D21" t="s">
-        <v>89</v>
       </c>
       <c r="E21" t="n">
         <v>46</v>
@@ -1810,7 +1777,7 @@
         <v>5</v>
       </c>
       <c r="L21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M21" t="s">
         <v>19</v>
@@ -1821,13 +1788,13 @@
         <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E22" t="n">
         <v>46</v>
@@ -1851,7 +1818,7 @@
         <v>23</v>
       </c>
       <c r="L22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M22" t="s">
         <v>19</v>
@@ -1862,13 +1829,13 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" t="s">
         <v>94</v>
-      </c>
-      <c r="C23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" t="s">
-        <v>96</v>
       </c>
       <c r="E23" t="n">
         <v>45</v>
@@ -1892,7 +1859,7 @@
         <v>3</v>
       </c>
       <c r="L23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M23" t="s">
         <v>31</v>
@@ -1903,13 +1870,13 @@
         <v>44</v>
       </c>
       <c r="B24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" t="s">
         <v>98</v>
-      </c>
-      <c r="C24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" t="s">
-        <v>100</v>
       </c>
       <c r="E24" t="n">
         <v>45</v>
@@ -1933,7 +1900,7 @@
         <v>14</v>
       </c>
       <c r="L24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M24" t="s">
         <v>19</v>
@@ -1944,13 +1911,13 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" t="s">
         <v>102</v>
-      </c>
-      <c r="C25" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" t="s">
-        <v>104</v>
       </c>
       <c r="E25" t="n">
         <v>44</v>
@@ -1974,7 +1941,7 @@
         <v>26</v>
       </c>
       <c r="L25" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="M25" t="s">
         <v>19</v>
@@ -1985,13 +1952,13 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E26" t="n">
         <v>43</v>
@@ -2015,7 +1982,7 @@
         <v>21</v>
       </c>
       <c r="L26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M26" t="s">
         <v>31</v>
@@ -2026,13 +1993,13 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E27" t="n">
         <v>42</v>
@@ -2056,7 +2023,7 @@
         <v>9</v>
       </c>
       <c r="L27" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M27" t="s">
         <v>19</v>
@@ -2067,13 +2034,13 @@
         <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E28" t="n">
         <v>42</v>
@@ -2097,7 +2064,7 @@
         <v>19</v>
       </c>
       <c r="L28" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="M28" t="s">
         <v>19</v>
@@ -2108,13 +2075,13 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E29" t="n">
         <v>41</v>
@@ -2138,7 +2105,7 @@
         <v>9</v>
       </c>
       <c r="L29" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M29" t="s">
         <v>19</v>
@@ -2149,13 +2116,13 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E30" t="n">
         <v>41</v>
@@ -2179,7 +2146,7 @@
         <v>1</v>
       </c>
       <c r="L30" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M30" t="s">
         <v>19</v>
@@ -2190,13 +2157,13 @@
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C31" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E31" t="n">
         <v>40</v>
@@ -2220,7 +2187,7 @@
         <v>17</v>
       </c>
       <c r="L31" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M31" t="s">
         <v>19</v>
@@ -2231,13 +2198,13 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E32" t="n">
         <v>39</v>
@@ -2261,7 +2228,7 @@
         <v>28</v>
       </c>
       <c r="L32" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M32" t="s">
         <v>31</v>
@@ -2272,13 +2239,13 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E33" t="n">
         <v>39</v>
@@ -2302,7 +2269,7 @@
         <v>7</v>
       </c>
       <c r="L33" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M33" t="s">
         <v>19</v>
@@ -2313,13 +2280,13 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D34" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E34" t="n">
         <v>38</v>
@@ -2343,7 +2310,7 @@
         <v>10</v>
       </c>
       <c r="L34" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="M34" t="s">
         <v>31</v>
@@ -2354,13 +2321,13 @@
         <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D35" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E35" t="n">
         <v>38</v>
@@ -2384,7 +2351,7 @@
         <v>10</v>
       </c>
       <c r="L35" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="M35" t="s">
         <v>31</v>
@@ -2395,13 +2362,13 @@
         <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C36" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D36" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E36" t="n">
         <v>37</v>
@@ -2425,7 +2392,7 @@
         <v>18</v>
       </c>
       <c r="L36" t="s">
-        <v>146</v>
+        <v>43</v>
       </c>
       <c r="M36" t="s">
         <v>31</v>
@@ -2436,13 +2403,13 @@
         <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C37" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D37" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E37" t="n">
         <v>37</v>
@@ -2466,7 +2433,7 @@
         <v>18</v>
       </c>
       <c r="L37" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="M37" t="s">
         <v>19</v>
@@ -2477,13 +2444,13 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C38" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D38" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E38" t="n">
         <v>36</v>
@@ -2507,7 +2474,7 @@
         <v>27</v>
       </c>
       <c r="L38" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="M38" t="s">
         <v>19</v>
@@ -2518,13 +2485,13 @@
         <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C39" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D39" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E39" t="n">
         <v>36</v>
@@ -2548,7 +2515,7 @@
         <v>27</v>
       </c>
       <c r="L39" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="M39" t="s">
         <v>19</v>
@@ -2559,13 +2526,13 @@
         <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C40" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D40" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E40" t="n">
         <v>35</v>
@@ -2589,7 +2556,7 @@
         <v>8</v>
       </c>
       <c r="L40" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M40" t="s">
         <v>19</v>
@@ -2600,13 +2567,13 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D41" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E41" t="n">
         <v>35</v>
@@ -2630,7 +2597,7 @@
         <v>14</v>
       </c>
       <c r="L41" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M41" t="s">
         <v>31</v>
@@ -2641,13 +2608,13 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C42" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D42" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E42" t="n">
         <v>34</v>
@@ -2671,7 +2638,7 @@
         <v>12</v>
       </c>
       <c r="L42" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="M42" t="s">
         <v>19</v>
@@ -2682,13 +2649,13 @@
         <v>24</v>
       </c>
       <c r="B43" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C43" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D43" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E43" t="n">
         <v>33</v>
@@ -2712,7 +2679,7 @@
         <v>11</v>
       </c>
       <c r="L43" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="M43" t="s">
         <v>19</v>
@@ -2723,13 +2690,13 @@
         <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C44" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D44" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E44" t="n">
         <v>33</v>
@@ -2753,7 +2720,7 @@
         <v>30</v>
       </c>
       <c r="L44" t="s">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="M44" t="s">
         <v>19</v>
@@ -2764,13 +2731,13 @@
         <v>13</v>
       </c>
       <c r="B45" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C45" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D45" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E45" t="n">
         <v>32</v>
@@ -2794,7 +2761,7 @@
         <v>29</v>
       </c>
       <c r="L45" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="M45" t="s">
         <v>19</v>
@@ -2805,13 +2772,13 @@
         <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C46" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D46" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E46" t="n">
         <v>32</v>
@@ -2835,7 +2802,7 @@
         <v>5</v>
       </c>
       <c r="L46" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="M46" t="s">
         <v>19</v>
@@ -2846,13 +2813,13 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C47" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D47" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E47" t="n">
         <v>32</v>
@@ -2876,7 +2843,7 @@
         <v>5</v>
       </c>
       <c r="L47" t="s">
-        <v>188</v>
+        <v>72</v>
       </c>
       <c r="M47" t="s">
         <v>19</v>
@@ -2887,13 +2854,13 @@
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C48" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D48" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E48" t="n">
         <v>31</v>
@@ -2917,7 +2884,7 @@
         <v>4</v>
       </c>
       <c r="L48" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="M48" t="s">
         <v>31</v>
@@ -2928,13 +2895,13 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C49" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D49" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E49" t="n">
         <v>30</v>
@@ -2956,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="L49" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="M49" t="s">
         <v>31</v>
@@ -2967,13 +2934,13 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C50" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D50" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E50" t="n">
         <v>29</v>
@@ -2997,7 +2964,7 @@
         <v>11</v>
       </c>
       <c r="L50" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="M50" t="s">
         <v>19</v>
@@ -3008,13 +2975,13 @@
         <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C51" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D51" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E51" t="n">
         <v>29</v>
@@ -3036,7 +3003,7 @@
         <v>12</v>
       </c>
       <c r="L51" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="M51" t="s">
         <v>19</v>
@@ -3047,10 +3014,10 @@
         <v>40</v>
       </c>
       <c r="B52" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C52" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D52"/>
       <c r="E52"/>
@@ -3067,7 +3034,7 @@
       <c r="J52"/>
       <c r="K52"/>
       <c r="L52" t="s">
-        <v>203</v>
+        <v>152</v>
       </c>
       <c r="M52" t="s">
         <v>31</v>
